--- a/1MB.xlsx
+++ b/1MB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Encryption algorithms performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779C107-D618-45C8-8EC2-0E3E4A7E6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7CE95D-0C23-4110-9FE6-D075A3D3FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="2205" windowWidth="16515" windowHeight="11745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2250" windowWidth="16515" windowHeight="11745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference" sheetId="2" r:id="rId1"/>
@@ -266,7 +266,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -394,17 +394,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,20 +1269,20 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="18">
-        <v>2.163E-2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1.44452</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.92930999999999997</v>
-      </c>
-      <c r="G12" s="19">
-        <v>3.36271E-2</v>
+      <c r="D12" s="20">
+        <v>0.70375299999999996</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1.421</v>
+      </c>
+      <c r="F12" s="20">
+        <v>29.907012000000002</v>
+      </c>
+      <c r="G12" s="21">
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="H12" s="14">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>51</v>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2304C67-AF39-4CA2-9387-E590608D6197}">
   <dimension ref="B5:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1581,7 @@
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1595,10 +1595,10 @@
       <c r="D24" s="2">
         <v>1024</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>3230016</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <f>E24-3*D24^2</f>
         <v>84288</v>
       </c>
@@ -1611,10 +1611,10 @@
       <c r="D25" s="2">
         <v>1024</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>3229440</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <f t="shared" ref="F25:F28" si="0">E25-3*D25^2</f>
         <v>83712</v>
       </c>
@@ -1627,10 +1627,10 @@
       <c r="D26" s="2">
         <v>1024</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>3219520</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
         <v>73792</v>
       </c>
@@ -1643,10 +1643,10 @@
       <c r="D27" s="2">
         <v>1024</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>3228832</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <f t="shared" si="0"/>
         <v>83104</v>
       </c>
@@ -1660,10 +1660,10 @@
       <c r="D28" s="2">
         <v>1024</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>3228848</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>83120</v>
       </c>
@@ -1678,10 +1678,10 @@
       <c r="D29" s="2">
         <v>1024</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>3229440</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <f>E29-3*D29^2</f>
         <v>83712</v>
       </c>
@@ -1694,10 +1694,10 @@
       <c r="D30" s="2">
         <v>1024</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>3228832</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <f>E30-3*D30^2</f>
         <v>83104</v>
       </c>
@@ -1710,10 +1710,10 @@
       <c r="D31" s="2">
         <v>1024</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>3228848</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <f t="shared" ref="F31" si="1">E31-3*D31^2</f>
         <v>83120</v>
       </c>
@@ -1724,14 +1724,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="2">
-        <v>32</v>
-      </c>
-      <c r="E32" s="21">
-        <v>196232</v>
-      </c>
-      <c r="F32" s="21">
-        <f>E32-D32*1024</f>
-        <v>163464</v>
+        <v>1024</v>
+      </c>
+      <c r="E32" s="19">
+        <v>848560</v>
+      </c>
+      <c r="F32" s="19">
+        <v>848560</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
@@ -1752,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914C15AA-F971-444B-844C-BA305FDD3A29}">
   <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,8 +1892,8 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.85982800000000004</v>
+      <c r="C13">
+        <v>22.455576000000001</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
